--- a/数据整理/stocks/港股/00027-银河娱乐.xlsx
+++ b/数据整理/stocks/港股/00027-银河娱乐.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,20 +512,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.94</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.45</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001764</t>
+          <t>001875</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发沪港深新机遇股票</t>
+          <t>前海开源沪港深优势精选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.71</t>
+          <t>186.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.0976</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -594,26 +634,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001875</t>
+          <t>010717</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深优势精选灵活配置混合</t>
+          <t>前海开源优质企业6个月持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>81.54</t>
+          <t>95.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>61.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5228</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -622,26 +672,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001874</t>
+          <t>006529</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深价值精选灵活配置混合</t>
+          <t>中欧匠心两年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>81.87</t>
+          <t>50.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8606</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -650,26 +710,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005644</t>
+          <t>009960</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发沪港深行业龙头混合</t>
+          <t>银华多元机遇混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>88.91</t>
+          <t>24.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8709</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -678,26 +748,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009960</t>
+          <t>010887</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银华多元机遇混合</t>
+          <t>南方消费升级混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>87.65</t>
+          <t>37.63</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>67.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8552</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -706,26 +786,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006529</t>
+          <t>005644</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧匠心两年持有期混合A</t>
+          <t>广发沪港深行业龙头混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>87.06</t>
+          <t>36.80</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2438</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -734,26 +824,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006530</t>
+          <t>001764</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧匠心两年持有期混合C</t>
+          <t>广发沪港深新机遇股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>87.06</t>
+          <t>30.40</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1339</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -762,26 +862,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006595</t>
+          <t>001691</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发港股通优质增长混合</t>
+          <t>南方香港成长灵活配置混合QDII</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>35.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0416</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -790,26 +900,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006768</t>
+          <t>001874</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华安沪港深优选混合</t>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>21.29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8878</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -818,26 +938,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006786</t>
+          <t>007368</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>泰康中证港股通大消费主题指数A</t>
+          <t>浙商沪港深精选混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>13.88</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7814</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -846,26 +976,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006787</t>
+          <t>010888</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>泰康中证港股通大消费主题指数C</t>
+          <t>南方消费升级混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>10.09</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>67.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4974</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -874,25 +1014,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010717</t>
+          <t>010718</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>前海开源优质企业6个月持有期混合A</t>
+          <t>前海开源优质企业6个月持有期混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>61.23</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>3.70</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4077</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>7</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010718</t>
+          <t>006595</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>前海开源优质企业6个月持有期混合C</t>
+          <t>广发港股通优质增长混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>61.23</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3166</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>007368</t>
+          <t>006530</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合A</t>
+          <t>中欧匠心两年持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>85.97</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>5.63</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>3</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2956</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007369</t>
+          <t>001703</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合C</t>
+          <t>银华沪港深增长股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>85.97</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010887</t>
+          <t>006768</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>南方消费升级混合A</t>
+          <t>华安沪港深优选混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>67.18</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010888</t>
+          <t>006786</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>南方消费升级混合C</t>
+          <t>泰康中证港股通大消费主题指数A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>67.18</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001691</t>
+          <t>007369</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>南方香港成长灵活配置混合QDII</t>
+          <t>浙商沪港深精选混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>86.88</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001703</t>
+          <t>006787</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>银华沪港深增长股票</t>
+          <t>泰康中证港股通大消费主题指数C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>88.24</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1108,15 +1328,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>94.70</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>3.73</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00027-银河娱乐.xlsx
+++ b/数据整理/stocks/港股/00027-银河娱乐.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,630 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010730</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华心佳两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>147.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.2698</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5050</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3692</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>67.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1355</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7967</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3037</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0767</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8044</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4712</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2446</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2174</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00027-银河娱乐.xlsx
+++ b/数据整理/stocks/港股/00027-银河娱乐.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1980,4 +1981,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5613</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00027-银河娱乐.xlsx
+++ b/数据整理/stocks/港股/00027-银河娱乐.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2113,4 +2114,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00027-银河娱乐.xlsx
+++ b/数据整理/stocks/港股/00027-银河娱乐.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2122,7 +2123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2133,17 +2134,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2153,14 +2174,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.63</v>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1717</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2169,14 +2212,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>20.54</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="4">
@@ -2185,14 +2318,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>25.16</v>
+        <v>20.54</v>
       </c>
     </row>
     <row r="5">
@@ -2201,13 +2334,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00027-银河娱乐.xlsx
+++ b/数据整理/stocks/港股/00027-银河娱乐.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2255,7 +2256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2266,17 +2267,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2286,14 +2307,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.26</v>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4480</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2302,14 +2345,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.63</v>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8769</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2318,14 +2383,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.54</v>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7619</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2334,14 +2421,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>25.16</v>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2350,13 +2459,547 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1647</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1451</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011534</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011535</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00027-银河娱乐.xlsx
+++ b/数据整理/stocks/港股/00027-银河娱乐.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2882,7 +2883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2893,17 +2894,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2913,14 +2934,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.92</v>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9209</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2929,14 +2972,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.26</v>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2945,14 +3010,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.63</v>
+          <t>011534</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2961,14 +3048,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20.54</v>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2977,14 +3086,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" t="n">
-        <v>25.16</v>
+          <t>011535</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2993,13 +3124,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25.16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00027-银河娱乐.xlsx
+++ b/数据整理/stocks/港股/00027-银河娱乐.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,37 +468,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -508,36 +488,110 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162416</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0110</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25.16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -551,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -602,32 +656,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001875</t>
+          <t>005354</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深优势精选灵活配置混合</t>
+          <t>富国沪港深行业精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>186.58</t>
+          <t>41.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.54</t>
+          <t>82.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8.0976</t>
+          <t>0.9209</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -640,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010717</t>
+          <t>011114</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源优质企业6个月持有期混合A</t>
+          <t>富国沪港深行业精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>95.21</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>61.23</t>
+          <t>82.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.5228</t>
+          <t>0.0608</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -678,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006529</t>
+          <t>011534</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧匠心两年持有期混合A</t>
+          <t>万家民瑞祥明6个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>50.81</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.06</t>
+          <t>21.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.8606</t>
+          <t>0.0331</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -716,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009960</t>
+          <t>006781</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银华多元机遇混合</t>
+          <t>汇丰晋信港股通精选股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.52</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.65</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.8709</t>
+          <t>0.0219</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -754,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010887</t>
+          <t>011535</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方消费升级混合A</t>
+          <t>万家民瑞祥明6个月持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>37.63</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>67.18</t>
+          <t>21.13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.8552</t>
+          <t>0.0040</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -792,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005644</t>
+          <t>009734</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发沪港深行业龙头混合</t>
+          <t>创金合信港股通大消费精选股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>36.80</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.91</t>
+          <t>83.41</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.2438</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -830,530 +884,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001764</t>
+          <t>009733</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发沪港深新机遇股票</t>
+          <t>创金合信港股通大消费精选股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>30.40</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>81.71</t>
+          <t>83.41</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.1339</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001691</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>南方香港成长灵活配置混合QDII</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>35.43</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>86.88</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.0416</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001874</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>前海开源沪港深价值精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>21.29</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>81.87</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.8878</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007368</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>13.88</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>85.97</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.7814</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010888</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方消费升级混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>10.09</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>67.18</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.4974</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010718</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>前海开源优质企业6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>11.02</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>61.23</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.4077</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006595</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>广发港股通优质增长混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>9.23</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.57</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.3166</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006530</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中欧匠心两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>87.06</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2956</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001703</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>银华沪港深增长股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>88.24</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1755</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006768</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华安沪港深优选混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0659</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006786</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>泰康中证港股通大消费主题指数A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0401</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>007369</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>85.97</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0383</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006787</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>泰康中证港股通大消费主题指数C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>162416</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1388,7 +948,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1418,36 +978,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010730</t>
+          <t>009909</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华心佳两年持有期混合</t>
+          <t>嘉实动力先锋混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>147.46</t>
+          <t>29.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>90.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7.2698</t>
+          <t>1.4480</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1456,36 +1016,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006529</t>
+          <t>005354</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧匠心两年持有期混合A</t>
+          <t>富国沪港深行业精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>68.63</t>
+          <t>37.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.06</t>
+          <t>82.60</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.5050</t>
+          <t>0.8769</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1494,36 +1054,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005794</t>
+          <t>009869</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华心怡灵活配置混合</t>
+          <t>嘉实产业先锋混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>48.75</t>
+          <t>17.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.30</t>
+          <t>89.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.3692</t>
+          <t>0.7619</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1532,36 +1092,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009909</t>
+          <t>009960</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实动力先锋混合A</t>
+          <t>银华多元机遇混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>67.58</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.75</t>
+          <t>87.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.1355</t>
+          <t>0.2376</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1570,36 +1130,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010887</t>
+          <t>009870</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方消费升级混合A</t>
+          <t>嘉实产业先锋混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>41.98</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.82</t>
+          <t>89.91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.7967</t>
+          <t>0.1647</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1608,36 +1168,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009960</t>
+          <t>009910</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银华多元机遇混合</t>
+          <t>嘉实动力先锋混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>19.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>87.12</t>
+          <t>90.99</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.3037</t>
+          <t>0.1451</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1646,36 +1206,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009869</t>
+          <t>040018</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实产业先锋混合A</t>
+          <t>华安香港精选股票(QDII)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>32.14</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>88.46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.0767</t>
+          <t>0.1362</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1684,32 +1244,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007368</t>
+          <t>011534</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合A</t>
+          <t>万家民瑞祥明6个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15.44</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.20</t>
+          <t>23.07</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.8044</t>
+          <t>0.0463</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1722,36 +1282,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010888</t>
+          <t>011114</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方消费升级混合C</t>
+          <t>富国沪港深行业精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11.01</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.82</t>
+          <t>82.60</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.4712</t>
+          <t>0.0398</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1760,36 +1320,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006530</t>
+          <t>006786</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中欧匠心两年持有期混合C</t>
+          <t>泰康中证港股通大消费主题指数A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>80.06</t>
+          <t>80.77</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2446</t>
+          <t>0.0212</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1798,32 +1358,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009870</t>
+          <t>006781</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉实产业先锋混合C</t>
+          <t>汇丰晋信港股通精选股票</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>90.36</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2174</t>
+          <t>0.0211</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1836,36 +1396,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009910</t>
+          <t>006787</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>嘉实动力先锋混合C</t>
+          <t>泰康中证港股通大消费主题指数C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.75</t>
+          <t>80.77</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1830</t>
+          <t>0.0102</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1874,32 +1434,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007369</t>
+          <t>011535</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合C</t>
+          <t>万家民瑞祥明6个月持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>91.20</t>
+          <t>23.07</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0860</t>
+          <t>0.0050</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1912,32 +1472,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006768</t>
+          <t>009733</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华安沪港深优选混合</t>
+          <t>创金合信港股通大消费精选股票A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.87</t>
+          <t>82.28</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0655</t>
+          <t>0.0035</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1950,32 +1510,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>162416</t>
+          <t>009734</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
+          <t>创金合信港股通大消费精选股票C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>94.89</t>
+          <t>82.28</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0094</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -2014,7 +1574,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2044,36 +1604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007368</t>
+          <t>160125</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合A</t>
+          <t>南方香港优选股票QDII-LOF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>93.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5613</t>
+          <t>0.1717</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2082,36 +1642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007369</t>
+          <t>007109</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合C</t>
+          <t>南方沪港深核心优势混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>89.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0710</t>
+          <t>0.0837</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2146,7 +1706,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2176,36 +1736,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160125</t>
+          <t>007368</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方香港优选股票QDII-LOF</t>
+          <t>浙商沪港深精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>90.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1717</t>
+          <t>0.5613</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2214,36 +1774,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007109</t>
+          <t>007369</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方沪港深核心优势混合</t>
+          <t>浙商沪港深精选混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.05</t>
+          <t>90.44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0837</t>
+          <t>0.0710</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2278,7 +1838,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2308,36 +1868,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009909</t>
+          <t>010730</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实动力先锋混合A</t>
+          <t>银华心佳两年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.43</t>
+          <t>147.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4480</t>
+          <t>7.2698</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2346,36 +1906,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005354</t>
+          <t>006529</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国沪港深行业精选灵活配置混合A</t>
+          <t>中欧匠心两年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>37.00</t>
+          <t>68.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.60</t>
+          <t>80.06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8769</t>
+          <t>2.5050</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2384,36 +1944,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009869</t>
+          <t>005794</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实产业先锋混合A</t>
+          <t>银华心怡灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.16</t>
+          <t>48.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>93.30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7619</t>
+          <t>2.3692</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2422,36 +1982,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009960</t>
+          <t>009909</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银华多元机遇混合</t>
+          <t>嘉实动力先锋混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.75</t>
+          <t>67.58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.53</t>
+          <t>94.75</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2376</t>
+          <t>2.1355</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2460,36 +2020,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009870</t>
+          <t>010887</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实产业先锋混合C</t>
+          <t>南方消费升级混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>41.98</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>91.82</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1647</t>
+          <t>1.7967</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2498,36 +2058,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009910</t>
+          <t>009960</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实动力先锋混合C</t>
+          <t>银华多元机遇混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>19.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>87.12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1451</t>
+          <t>1.3037</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -2536,36 +2096,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>040018</t>
+          <t>009869</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华安香港精选股票(QDII)</t>
+          <t>嘉实产业先锋混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>32.14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.46</t>
+          <t>92.87</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1362</t>
+          <t>1.0767</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2574,32 +2134,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011534</t>
+          <t>007368</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>万家民瑞祥明6个月持有期混合型证券投资基金A</t>
+          <t>浙商沪港深精选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>15.44</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>23.07</t>
+          <t>91.20</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0463</t>
+          <t>0.8044</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2612,36 +2172,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011114</t>
+          <t>010888</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国沪港深行业精选灵活配置混合C</t>
+          <t>南方消费升级混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>11.01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>82.60</t>
+          <t>91.82</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0398</t>
+          <t>0.4712</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -2650,36 +2210,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006786</t>
+          <t>006530</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>泰康中证港股通大消费主题指数A</t>
+          <t>中欧匠心两年持有期混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>80.77</t>
+          <t>80.06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0212</t>
+          <t>0.2446</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -2688,32 +2248,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006781</t>
+          <t>009870</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇丰晋信港股通精选股票</t>
+          <t>嘉实产业先锋混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>92.87</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0211</t>
+          <t>0.2174</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -2726,36 +2286,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006787</t>
+          <t>009910</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泰康中证港股通大消费主题指数C</t>
+          <t>嘉实动力先锋混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>80.77</t>
+          <t>94.75</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0102</t>
+          <t>0.1830</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -2764,32 +2324,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011535</t>
+          <t>007369</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>万家民瑞祥明6个月持有期混合型证券投资基金C</t>
+          <t>浙商沪港深精选混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23.07</t>
+          <t>91.20</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0050</t>
+          <t>0.0860</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -2802,32 +2362,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009733</t>
+          <t>006768</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>创金合信港股通大消费精选股票A</t>
+          <t>华安沪港深优选混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>82.28</t>
+          <t>94.87</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0655</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -2840,32 +2400,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009734</t>
+          <t>162416</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>创金合信港股通大消费精选股票C</t>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>82.28</t>
+          <t>94.89</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0019</t>
+          <t>0.0094</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -2883,7 +2443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2904,7 +2464,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2934,32 +2494,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005354</t>
+          <t>001875</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国沪港深行业精选灵活配置混合A</t>
+          <t>前海开源沪港深优势精选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41.48</t>
+          <t>186.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.10</t>
+          <t>81.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9209</t>
+          <t>8.0976</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2972,36 +2532,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011114</t>
+          <t>010717</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国沪港深行业精选灵活配置混合C</t>
+          <t>前海开源优质企业6个月持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>95.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.10</t>
+          <t>61.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0608</t>
+          <t>3.5228</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3010,36 +2570,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011534</t>
+          <t>006529</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家民瑞祥明6个月持有期混合型证券投资基金A</t>
+          <t>中欧匠心两年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>50.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21.13</t>
+          <t>87.06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0331</t>
+          <t>2.8606</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3048,36 +2608,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006781</t>
+          <t>009960</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇丰晋信港股通精选股票</t>
+          <t>银华多元机遇混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>24.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>87.65</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0219</t>
+          <t>1.8709</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3086,36 +2646,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011535</t>
+          <t>010887</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万家民瑞祥明6个月持有期混合型证券投资基金C</t>
+          <t>南方消费升级混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>37.63</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>21.13</t>
+          <t>67.18</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>1.8552</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -3124,36 +2684,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009734</t>
+          <t>005644</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>创金合信港股通大消费精选股票C</t>
+          <t>广发沪港深行业龙头混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>36.80</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.41</t>
+          <t>88.91</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>1.2438</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -3162,36 +2722,530 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009733</t>
+          <t>001764</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>创金合信港股通大消费精选股票A</t>
+          <t>广发沪港深新机遇股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>30.40</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>83.41</t>
+          <t>81.71</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>1.1339</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001691</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方香港成长灵活配置混合QDII</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0416</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8878</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7814</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>67.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4974</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>61.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4077</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3166</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2956</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3205,7 +3259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3216,17 +3270,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3236,110 +3310,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.92</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>15</v>
-      </c>
-      <c r="D6" t="n">
-        <v>20.54</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>20</v>
-      </c>
-      <c r="D7" t="n">
-        <v>25.16</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.01</v>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00027-银河娱乐.xlsx
+++ b/数据整理/stocks/港股/00027-银河娱乐.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>1.05</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>3.92</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>0.26</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.63</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>20.54</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>25.16</v>
+        <v>20.54</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25.16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -600,6 +617,784 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9064</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3754</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012884</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3754</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011534</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513960</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时港股通消费ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>513070</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011535</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -921,7 +1716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1540,138 +2335,6 @@
       </c>
       <c r="H16" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160125</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方香港优选股票QDII-LOF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.38</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1717</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007109</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方沪港深核心优势混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.05</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0837</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1706,7 +2369,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1736,36 +2399,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007368</t>
+          <t>160125</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合A</t>
+          <t>南方香港优选股票QDII-LOF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>93.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5613</t>
+          <t>0.1717</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1774,36 +2437,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007369</t>
+          <t>007109</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合C</t>
+          <t>南方沪港深核心优势混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>89.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0710</t>
+          <t>0.0837</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1812,6 +2475,138 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5613</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2437,7 +3232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3253,7 +4048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00027-银河娱乐.xlsx
+++ b/数据整理/stocks/港股/00027-银河娱乐.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>1.95</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>1.05</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>3.92</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>0.26</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.63</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>20.54</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>25.16</v>
+        <v>20.54</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,124 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25.16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +728,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7271</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012434</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华多元回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3696</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3317</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015663</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易米开鑫价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012884</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011534</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015664</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易米开鑫价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>62.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011535</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1394,7 +2093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1716,7 +2415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2335,138 +3034,6 @@
       </c>
       <c r="H16" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160125</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方香港优选股票QDII-LOF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.38</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1717</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007109</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方沪港深核心优势混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.05</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0837</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2501,7 +3068,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2531,36 +3098,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007368</t>
+          <t>160125</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合A</t>
+          <t>南方香港优选股票QDII-LOF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>93.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5613</t>
+          <t>0.1717</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2569,36 +3136,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007369</t>
+          <t>007109</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合C</t>
+          <t>南方沪港深核心优势混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>89.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0710</t>
+          <t>0.0837</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2607,6 +3174,138 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5613</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3232,7 +3931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4046,98 +4745,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>162416</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0110</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>